--- a/docs/project-management.xlsx
+++ b/docs/project-management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Persistence/Workspace/Udacity/Labs/Lab2.BuildingCICDPipeline/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107FFE66-DFDB-4A48-9312-DDF86CCA8531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8BE4AF-E16C-3F45-A567-21017A6580E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25640" yWindow="500" windowWidth="25560" windowHeight="26780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
   <si>
     <t>Week</t>
   </si>
@@ -267,6 +267,9 @@
   <si>
     <t>The first beta version</t>
   </si>
+  <si>
+    <t>Effort Time (h)</t>
+  </si>
 </sst>
 </file>
 
@@ -364,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -408,6 +411,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1156,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307A4140-4E91-BF49-ACF0-0D005BC0E225}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1167,198 +1176,208 @@
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="11"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="15">
         <v>44564</v>
       </c>
-      <c r="G3" s="15">
-        <f>F3+5</f>
+      <c r="H3" s="15">
+        <f>G3+5</f>
         <v>44569</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15">
+      <c r="G4" s="15">
         <v>44571</v>
       </c>
-      <c r="G4" s="15">
+      <c r="H4" s="15">
         <v>44582</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="15">
         <v>44578</v>
       </c>
-      <c r="G5" s="15">
+      <c r="H5" s="15">
         <v>44582</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="15">
         <v>44592</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="15">
         <v>44603</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="15">
         <v>44599</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="15">
         <v>44610</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="15">
-        <v>44613</v>
       </c>
       <c r="G8" s="15">
         <v>44613</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H8" s="15">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="11"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
         <v>0</v>
       </c>
@@ -1368,248 +1387,289 @@
       <c r="C10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="J10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="K10" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="13">
+        <v>36</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="22">
+      <c r="G11" s="22">
         <v>44564</v>
       </c>
-      <c r="G11" s="22">
-        <f>F11+5</f>
+      <c r="H11" s="22">
+        <f>G11+5</f>
         <v>44569</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="13">
+        <f>SUM(D13:D17)</f>
+        <v>80</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="22">
+      <c r="G12" s="22">
         <v>44571</v>
       </c>
-      <c r="G12" s="22">
+      <c r="H12" s="22">
         <v>44582</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="14">
+      <c r="G13" s="14">
         <v>44571</v>
       </c>
-      <c r="G13" s="14">
+      <c r="H13" s="14">
         <v>44572</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="14">
+      <c r="G14" s="14">
         <v>44573</v>
       </c>
-      <c r="G14" s="14">
+      <c r="H14" s="14">
         <v>44575</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="12">
+        <v>24</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="14">
+      <c r="G15" s="14">
         <v>44578</v>
       </c>
-      <c r="G15" s="14">
+      <c r="H15" s="14">
         <v>44580</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="12">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="F16" s="14">
-        <v>44581</v>
       </c>
       <c r="G16" s="14">
         <v>44581</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="14">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="12">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="F17" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="F17" s="14">
-        <v>44582</v>
       </c>
       <c r="G17" s="14">
         <v>44582</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="14">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="13">
+        <f>SUM(D19:D22)</f>
+        <v>72</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="F18" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="22">
+      <c r="G18" s="22">
         <v>44578</v>
       </c>
-      <c r="G18" s="22">
+      <c r="H18" s="22">
         <v>44582</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="14">
+      <c r="G19" s="14">
         <v>44578</v>
       </c>
-      <c r="G19" s="14">
+      <c r="H19" s="14">
         <v>44580</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="14">
+      <c r="G20" s="14">
         <v>44581</v>
       </c>
-      <c r="G20" s="14">
+      <c r="H20" s="14">
         <v>44582</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="12">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="14">
+      <c r="G21" s="14">
         <v>44583</v>
       </c>
-      <c r="G21" s="14">
+      <c r="H21" s="14">
         <v>44584</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="14">
+      <c r="G22" s="14">
         <v>44585</v>
       </c>
-      <c r="G22" s="14">
+      <c r="H22" s="14">
         <v>44586</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13">
         <v>4</v>
       </c>
@@ -1617,105 +1677,124 @@
         <v>24</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="13">
+        <f>SUM(D24:D28)</f>
+        <v>92</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="22">
+      <c r="G23" s="22">
         <v>44592</v>
       </c>
-      <c r="G23" s="22">
+      <c r="H23" s="22">
         <v>44603</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="12">
+        <v>12</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="F24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="15">
+      <c r="G24" s="15">
         <v>44592</v>
       </c>
-      <c r="G24" s="15">
+      <c r="H24" s="15">
         <v>44594</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C25" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="12">
+        <v>16</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="F25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="15">
         <v>44595</v>
       </c>
-      <c r="G25" s="15">
+      <c r="H25" s="15">
         <v>44596</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="12">
+        <v>32</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="F26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="15">
+      <c r="G26" s="15">
         <v>44597</v>
       </c>
-      <c r="G26" s="15">
+      <c r="H26" s="15">
         <v>44600</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="12">
+        <v>16</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="F27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="15">
+      <c r="G27" s="15">
         <v>44601</v>
       </c>
-      <c r="G27" s="15">
+      <c r="H27" s="15">
         <v>44602</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="12">
+        <v>16</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="F28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="15">
+      <c r="G28" s="15">
         <v>44602</v>
       </c>
-      <c r="G28" s="15">
+      <c r="H28" s="15">
         <v>44603</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="13">
         <v>5</v>
       </c>
@@ -1723,105 +1802,124 @@
         <v>57</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="13">
+        <f>SUM(D30:D33)</f>
+        <v>60</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="22">
+      <c r="G29" s="22">
         <v>44599</v>
       </c>
-      <c r="G29" s="22">
+      <c r="H29" s="22">
         <v>44610</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C30" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="12">
+        <v>16</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="F30" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="15">
+      <c r="G30" s="15">
         <v>44599</v>
       </c>
-      <c r="G30" s="15">
+      <c r="H30" s="15">
         <v>44600</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="12">
+        <v>8</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="F31" s="15">
-        <v>44601</v>
       </c>
       <c r="G31" s="15">
         <v>44601</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="15">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="12">
+        <v>16</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="F32" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="15">
+      <c r="G32" s="15">
         <v>44602</v>
       </c>
-      <c r="G32" s="15">
+      <c r="H32" s="15">
         <v>44603</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="12">
+        <v>20</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="15">
+      <c r="G33" s="15">
         <v>44606</v>
       </c>
-      <c r="G33" s="15">
+      <c r="H33" s="15">
         <v>44610</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="12">
+        <v>20</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="F34" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="15">
+      <c r="G34" s="15">
         <v>44606</v>
       </c>
-      <c r="G34" s="15">
+      <c r="H34" s="15">
         <v>44610</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
         <v>6</v>
       </c>
@@ -1829,113 +1927,146 @@
         <v>44</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="13">
+        <v>36</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="F35" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="F35" s="22">
-        <v>44613</v>
       </c>
       <c r="G35" s="22">
         <v>44613</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H35" s="22">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C48" s="12"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" s="12"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C50" s="12"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C51" s="12"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C64" s="12"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C65" s="12"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D65" s="12"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C66" s="12"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C67" s="12"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C68" s="12"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E11:E40">
+  <conditionalFormatting sqref="F11:F40">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
@@ -1949,7 +2080,7 @@
       <formula>"NOT STARTED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E8">
+  <conditionalFormatting sqref="F3:F8">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"BLOCKED"</formula>
     </cfRule>
@@ -1964,10 +2095,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D40 D3:D8" xr:uid="{F615F304-D67F-9244-93CA-E3EABB19265B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E40 E3:E8" xr:uid="{F615F304-D67F-9244-93CA-E3EABB19265B}">
       <formula1>"HieuVV,Jane,Thomas,Bob"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E40 E3:E8" xr:uid="{28A77C73-3D85-B440-A36C-B7CBBDEEAB42}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11:F40 F3:F8" xr:uid="{28A77C73-3D85-B440-A36C-B7CBBDEEAB42}">
       <formula1>"N/A,NOT STARTED,IN PROGRESS,DONE,BLOCKED"</formula1>
     </dataValidation>
   </dataValidations>
